--- a/techniqo/data_new_ticker/SPICEJET.xlsx
+++ b/techniqo/data_new_ticker/SPICEJET.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G267"/>
+  <dimension ref="A1:G269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9731,6 +9731,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>54.15</v>
+      </c>
+      <c r="C268" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="D268" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="E268" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="F268" t="n">
+        <v>3217153</v>
+      </c>
+      <c r="G268" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="C269" t="n">
+        <v>55</v>
+      </c>
+      <c r="D269" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="E269" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>6735013</v>
+      </c>
+      <c r="G269" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/SPICEJET.xlsx
+++ b/techniqo/data_new_ticker/SPICEJET.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G269"/>
+  <dimension ref="A1:G271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9781,6 +9781,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C270" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="D270" t="n">
+        <v>51.95</v>
+      </c>
+      <c r="E270" t="n">
+        <v>52.05</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2205996</v>
+      </c>
+      <c r="G270" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="C271" t="n">
+        <v>52.75</v>
+      </c>
+      <c r="D271" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E271" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1441957</v>
+      </c>
+      <c r="G271" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
